--- a/R.P Smart Farming/2018.xlsx
+++ b/R.P Smart Farming/2018.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>No.</t>
   </si>
@@ -46,15 +46,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Jahr</t>
-  </si>
-  <si>
-    <t>Flaeche</t>
-  </si>
-  <si>
-    <t>LFlaeche</t>
   </si>
   <si>
     <t>Duernasterfeld</t>
@@ -381,9 +372,6 @@
     <col min="10" max="1024" width="15"/>
     <col min="11" max="1024" width="15"/>
     <col min="12" max="1024" width="15"/>
-    <col min="13" max="1024" width="15"/>
-    <col min="14" max="1024" width="15"/>
-    <col min="15" max="1024" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -423,22 +411,13 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>776</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>2018</v>
@@ -447,7 +426,7 @@
         <v>2.56</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1">
         <v>43221</v>
@@ -465,16 +444,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2">
-        <v>2019</v>
-      </c>
-      <c r="N2">
-        <v>2.0318</v>
-      </c>
-      <c r="O2">
-        <v>2.0318</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +452,7 @@
         <v>786</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>2018</v>
@@ -491,7 +461,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1">
         <v>42970</v>
@@ -509,16 +479,7 @@
         <v>141</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3">
-        <v>2018</v>
-      </c>
-      <c r="N3">
-        <v>6.453</v>
-      </c>
-      <c r="O3">
-        <v>6.453</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -526,7 +487,7 @@
         <v>788</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>2018</v>
@@ -535,7 +496,7 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1">
         <v>42972</v>
@@ -553,16 +514,7 @@
         <v>198</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4">
-        <v>2018</v>
-      </c>
-      <c r="N4">
-        <v>0.1196</v>
-      </c>
-      <c r="O4">
-        <v>0.1196</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -570,7 +522,7 @@
         <v>736</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>2018</v>
@@ -579,7 +531,7 @@
         <v>1.42</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1">
         <v>42976</v>
@@ -597,16 +549,7 @@
         <v>171.65</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5">
-        <v>2018</v>
-      </c>
-      <c r="N5">
-        <v>1.9072</v>
-      </c>
-      <c r="O5">
-        <v>1.9072</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -614,7 +557,7 @@
         <v>737</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>2018</v>
@@ -623,7 +566,7 @@
         <v>4.08</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1">
         <v>42972</v>
@@ -641,16 +584,7 @@
         <v>194.08</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6">
-        <v>2018</v>
-      </c>
-      <c r="N6">
-        <v>3.0929</v>
-      </c>
-      <c r="O6">
-        <v>3.0929</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +592,7 @@
         <v>739</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>2018</v>
@@ -667,7 +601,7 @@
         <v>1.91</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1">
         <v>42972</v>
@@ -685,16 +619,7 @@
         <v>194.06</v>
       </c>
       <c r="L7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7">
-        <v>2018</v>
-      </c>
-      <c r="N7">
-        <v>13.7555</v>
-      </c>
-      <c r="O7">
-        <v>13.7555</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -702,7 +627,7 @@
         <v>740</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>2018</v>
@@ -711,7 +636,7 @@
         <v>0.39</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1">
         <v>42972</v>
@@ -729,16 +654,7 @@
         <v>194.48</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8">
-        <v>2018</v>
-      </c>
-      <c r="N8">
-        <v>3.8691</v>
-      </c>
-      <c r="O8">
-        <v>3.8691</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -746,7 +662,7 @@
         <v>787</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>2018</v>
@@ -755,7 +671,7 @@
         <v>11.8</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1">
         <v>42971</v>
@@ -773,16 +689,7 @@
         <v>184</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9">
-        <v>2018</v>
-      </c>
-      <c r="N9">
-        <v>0.2016</v>
-      </c>
-      <c r="O9">
-        <v>0.2016</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -790,7 +697,7 @@
         <v>738</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>2018</v>
@@ -799,7 +706,7 @@
         <v>2.47</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1">
         <v>42972</v>
@@ -817,16 +724,7 @@
         <v>194.13</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10">
-        <v>2018</v>
-      </c>
-      <c r="N10">
-        <v>1.5026</v>
-      </c>
-      <c r="O10">
-        <v>1.5026</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -834,7 +732,7 @@
         <v>742</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>2018</v>
@@ -843,7 +741,7 @@
         <v>1.73</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1">
         <v>42976</v>
@@ -861,16 +759,7 @@
         <v>160.42</v>
       </c>
       <c r="L11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11">
-        <v>2018</v>
-      </c>
-      <c r="N11">
-        <v>5.3283</v>
-      </c>
-      <c r="O11">
-        <v>5.3283</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -878,7 +767,7 @@
         <v>741</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>2018</v>
@@ -887,7 +776,7 @@
         <v>8.359999999999999</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F12" s="1">
         <v>42976</v>
@@ -905,16 +794,7 @@
         <v>171.68</v>
       </c>
       <c r="L12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12">
-        <v>2018</v>
-      </c>
-      <c r="N12">
-        <v>0.8388</v>
-      </c>
-      <c r="O12">
-        <v>0.8388</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -922,7 +802,7 @@
         <v>735</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>2018</v>
@@ -931,7 +811,7 @@
         <v>6.31</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F13" s="1">
         <v>42973</v>
@@ -949,16 +829,7 @@
         <v>72.58</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13">
-        <v>2018</v>
-      </c>
-      <c r="N13">
-        <v>5.4311</v>
-      </c>
-      <c r="O13">
-        <v>5.4311</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
@@ -966,7 +837,7 @@
         <v>762</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>2018</v>
@@ -975,7 +846,7 @@
         <v>3.55</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1">
         <v>43005</v>
@@ -993,16 +864,7 @@
         <v>121</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14">
-        <v>2018</v>
-      </c>
-      <c r="N14">
-        <v>2.4727</v>
-      </c>
-      <c r="O14">
-        <v>2.4727</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -1010,7 +872,7 @@
         <v>713</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>2018</v>
@@ -1019,7 +881,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1">
         <v>43028</v>
@@ -1037,16 +899,7 @@
         <v>159.15</v>
       </c>
       <c r="L15" t="s">
-        <v>46</v>
-      </c>
-      <c r="M15">
-        <v>2018</v>
-      </c>
-      <c r="N15">
-        <v>7.0241</v>
-      </c>
-      <c r="O15">
-        <v>7.0241</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
@@ -1054,7 +907,7 @@
         <v>755</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>2018</v>
@@ -1063,7 +916,7 @@
         <v>1.48</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F16" s="1">
         <v>43004</v>
@@ -1081,16 +934,7 @@
         <v>114.75</v>
       </c>
       <c r="L16" t="s">
-        <v>48</v>
-      </c>
-      <c r="M16">
-        <v>2018</v>
-      </c>
-      <c r="N16">
-        <v>4.8132</v>
-      </c>
-      <c r="O16">
-        <v>4.8132</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
@@ -1098,7 +942,7 @@
         <v>729</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17">
         <v>2018</v>
@@ -1107,7 +951,7 @@
         <v>2.59</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F17" s="1">
         <v>43026</v>
@@ -1125,16 +969,7 @@
         <v>166.99</v>
       </c>
       <c r="L17" t="s">
-        <v>50</v>
-      </c>
-      <c r="M17">
-        <v>2018</v>
-      </c>
-      <c r="N17">
-        <v>7.7046</v>
-      </c>
-      <c r="O17">
-        <v>7.7046</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1142,7 +977,7 @@
         <v>761</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>2018</v>
@@ -1151,7 +986,7 @@
         <v>6.14</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F18" s="1">
         <v>43005</v>
@@ -1169,16 +1004,7 @@
         <v>148.46</v>
       </c>
       <c r="L18" t="s">
-        <v>52</v>
-      </c>
-      <c r="M18">
-        <v>2018</v>
-      </c>
-      <c r="N18">
-        <v>1.6399</v>
-      </c>
-      <c r="O18">
-        <v>1.6399</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1186,7 +1012,7 @@
         <v>763</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C19">
         <v>2018</v>
@@ -1195,7 +1021,7 @@
         <v>7.06</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1">
         <v>43201</v>
@@ -1213,16 +1039,7 @@
         <v>60</v>
       </c>
       <c r="L19" t="s">
-        <v>55</v>
-      </c>
-      <c r="M19">
-        <v>2018</v>
-      </c>
-      <c r="N19">
-        <v>1.258</v>
-      </c>
-      <c r="O19">
-        <v>1.258</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
@@ -1230,7 +1047,7 @@
         <v>795</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>2018</v>
@@ -1239,7 +1056,7 @@
         <v>24.4</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F20" s="1">
         <v>43193</v>
@@ -1257,16 +1074,7 @@
         <v>97</v>
       </c>
       <c r="L20" t="s">
-        <v>58</v>
-      </c>
-      <c r="M20">
-        <v>2018</v>
-      </c>
-      <c r="N20">
-        <v>7.9894</v>
-      </c>
-      <c r="O20">
-        <v>7.9894</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
@@ -1274,7 +1082,7 @@
         <v>711</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21">
         <v>2018</v>
@@ -1283,7 +1091,7 @@
         <v>4.19</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F21" s="1">
         <v>43034</v>
@@ -1301,16 +1109,7 @@
         <v>159.27</v>
       </c>
       <c r="L21" t="s">
-        <v>60</v>
-      </c>
-      <c r="M21">
-        <v>2018</v>
-      </c>
-      <c r="N21">
-        <v>7.6902</v>
-      </c>
-      <c r="O21">
-        <v>7.6902</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
@@ -1318,7 +1117,7 @@
         <v>723</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C22">
         <v>2018</v>
@@ -1327,7 +1126,7 @@
         <v>4.39</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F22" s="1">
         <v>43034</v>
@@ -1345,16 +1144,7 @@
         <v>166.97</v>
       </c>
       <c r="L22" t="s">
-        <v>62</v>
-      </c>
-      <c r="M22">
-        <v>2018</v>
-      </c>
-      <c r="N22">
-        <v>2.7003</v>
-      </c>
-      <c r="O22">
-        <v>2.7003</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
@@ -1362,7 +1152,7 @@
         <v>759</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>2018</v>
@@ -1371,7 +1161,7 @@
         <v>4.37</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F23" s="1">
         <v>43007</v>
@@ -1389,16 +1179,7 @@
         <v>148.49</v>
       </c>
       <c r="L23" t="s">
-        <v>64</v>
-      </c>
-      <c r="M23">
-        <v>2018</v>
-      </c>
-      <c r="N23">
-        <v>1.4607</v>
-      </c>
-      <c r="O23">
-        <v>1.4607</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
@@ -1406,7 +1187,7 @@
         <v>712</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C24">
         <v>2018</v>
@@ -1415,7 +1196,7 @@
         <v>4.37</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F24" s="1">
         <v>43034</v>
@@ -1438,7 +1219,7 @@
         <v>752</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C25">
         <v>2018</v>
@@ -1447,7 +1228,7 @@
         <v>12.77</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F25" s="1">
         <v>43004</v>
@@ -1470,7 +1251,7 @@
         <v>753</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C26">
         <v>2018</v>
@@ -1479,7 +1260,7 @@
         <v>4.48</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F26" s="1">
         <v>43003</v>
@@ -1502,7 +1283,7 @@
         <v>754</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C27">
         <v>2018</v>
@@ -1511,7 +1292,7 @@
         <v>6.38</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F27" s="1">
         <v>43003</v>
@@ -1534,7 +1315,7 @@
         <v>726</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28">
         <v>2018</v>
@@ -1543,7 +1324,7 @@
         <v>4.66</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F28" s="1">
         <v>43026</v>
@@ -1566,7 +1347,7 @@
         <v>728</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C29">
         <v>2018</v>
@@ -1575,7 +1356,7 @@
         <v>0.79</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F29" s="1">
         <v>43026</v>
@@ -1598,7 +1379,7 @@
         <v>760</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C30">
         <v>2018</v>
@@ -1607,7 +1388,7 @@
         <v>1.67</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F30" s="1">
         <v>43005</v>
@@ -1630,7 +1411,7 @@
         <v>724</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C31">
         <v>2018</v>
@@ -1639,7 +1420,7 @@
         <v>3.81</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F31" s="1">
         <v>43026</v>
@@ -1662,7 +1443,7 @@
         <v>756</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C32">
         <v>2018</v>
@@ -1671,7 +1452,7 @@
         <v>1.26</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F32" s="1">
         <v>43005</v>
@@ -1694,7 +1475,7 @@
         <v>757</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C33">
         <v>2018</v>
@@ -1703,7 +1484,7 @@
         <v>1.11</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F33" s="1">
         <v>43003</v>
@@ -1726,7 +1507,7 @@
         <v>758</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C34">
         <v>2018</v>
@@ -1735,7 +1516,7 @@
         <v>5.35</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F34" s="1">
         <v>43003</v>
@@ -1758,7 +1539,7 @@
         <v>719</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C35">
         <v>2018</v>
@@ -1767,7 +1548,7 @@
         <v>1.61</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F35" s="1">
         <v>43022</v>
@@ -1790,7 +1571,7 @@
         <v>720</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C36">
         <v>2018</v>
@@ -1799,7 +1580,7 @@
         <v>0.39</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F36" s="1">
         <v>43022</v>
@@ -1822,7 +1603,7 @@
         <v>721</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C37">
         <v>2018</v>
@@ -1831,7 +1612,7 @@
         <v>1.01</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F37" s="1">
         <v>43022</v>
@@ -1854,7 +1635,7 @@
         <v>722</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C38">
         <v>2018</v>
@@ -1863,7 +1644,7 @@
         <v>0.63</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F38" s="1">
         <v>43022</v>
@@ -1886,7 +1667,7 @@
         <v>725</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C39">
         <v>2018</v>
@@ -1895,7 +1676,7 @@
         <v>12.23</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F39" s="1">
         <v>43026</v>
@@ -1918,7 +1699,7 @@
         <v>794</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C40">
         <v>2018</v>
@@ -1927,7 +1708,7 @@
         <v>5.6</v>
       </c>
       <c r="E40" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F40" s="1">
         <v>43193</v>
@@ -1950,7 +1731,7 @@
         <v>718</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C41">
         <v>2018</v>
@@ -1959,7 +1740,7 @@
         <v>1.57</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F41" s="1">
         <v>43025</v>
@@ -1982,7 +1763,7 @@
         <v>727</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C42">
         <v>2018</v>
@@ -1991,7 +1772,7 @@
         <v>1.73</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F42" s="1">
         <v>43026</v>
@@ -2014,7 +1795,7 @@
         <v>716</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C43">
         <v>2018</v>
@@ -2023,7 +1804,7 @@
         <v>0.55</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F43" s="1">
         <v>43024</v>
@@ -2046,7 +1827,7 @@
         <v>717</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C44">
         <v>2018</v>
@@ -2055,7 +1836,7 @@
         <v>4.71</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F44" s="1">
         <v>42994</v>
@@ -2078,7 +1859,7 @@
         <v>715</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C45">
         <v>2018</v>
@@ -2087,7 +1868,7 @@
         <v>1.25</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F45" s="1">
         <v>43024</v>
@@ -2110,7 +1891,7 @@
         <v>714</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C46">
         <v>2018</v>
@@ -2119,7 +1900,7 @@
         <v>4.46</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F46" s="1">
         <v>43024</v>
@@ -2142,7 +1923,7 @@
         <v>769</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C47">
         <v>2018</v>
@@ -2151,7 +1932,7 @@
         <v>12.33</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F47" s="1">
         <v>43210</v>
@@ -2174,7 +1955,7 @@
         <v>785</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C48">
         <v>2018</v>
@@ -2183,7 +1964,7 @@
         <v>4.54</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F48" s="1">
         <v>43210</v>
@@ -2206,7 +1987,7 @@
         <v>743</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C49">
         <v>2018</v>
@@ -2215,7 +1996,7 @@
         <v>4.21</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F49" s="1">
         <v>43210</v>
@@ -2238,7 +2019,7 @@
         <v>764</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C50">
         <v>2018</v>
@@ -2247,7 +2028,7 @@
         <v>8.81</v>
       </c>
       <c r="E50" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F50" s="1">
         <v>43211</v>
@@ -2270,7 +2051,7 @@
         <v>765</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C51">
         <v>2018</v>
@@ -2279,7 +2060,7 @@
         <v>2.01</v>
       </c>
       <c r="E51" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F51" s="1">
         <v>43210</v>
@@ -2302,7 +2083,7 @@
         <v>767</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C52">
         <v>2018</v>
@@ -2311,7 +2092,7 @@
         <v>1.77</v>
       </c>
       <c r="E52" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F52" s="1">
         <v>43214</v>
@@ -2334,7 +2115,7 @@
         <v>774</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C53">
         <v>2018</v>
@@ -2343,7 +2124,7 @@
         <v>14.22</v>
       </c>
       <c r="E53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F53" s="1">
         <v>43210</v>
@@ -2366,7 +2147,7 @@
         <v>778</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C54">
         <v>2018</v>
@@ -2375,7 +2156,7 @@
         <v>4.81</v>
       </c>
       <c r="E54" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F54" s="1">
         <v>43217</v>
@@ -2398,7 +2179,7 @@
         <v>779</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C55">
         <v>2018</v>
@@ -2407,7 +2188,7 @@
         <v>2.45</v>
       </c>
       <c r="E55" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F55" s="1">
         <v>43217</v>
@@ -2430,7 +2211,7 @@
         <v>780</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C56">
         <v>2018</v>
@@ -2439,7 +2220,7 @@
         <v>5.97</v>
       </c>
       <c r="E56" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F56" s="1">
         <v>43217</v>
@@ -2462,7 +2243,7 @@
         <v>781</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C57">
         <v>2018</v>
@@ -2471,7 +2252,7 @@
         <v>0.84</v>
       </c>
       <c r="E57" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F57" s="1">
         <v>43217</v>
@@ -2494,7 +2275,7 @@
         <v>782</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C58">
         <v>2018</v>
@@ -2503,7 +2284,7 @@
         <v>4.44</v>
       </c>
       <c r="E58" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F58" s="1">
         <v>43217</v>
@@ -2526,7 +2307,7 @@
         <v>783</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C59">
         <v>2018</v>
@@ -2535,7 +2316,7 @@
         <v>0.68</v>
       </c>
       <c r="E59" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F59" s="1">
         <v>43217</v>
@@ -2558,7 +2339,7 @@
         <v>784</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C60">
         <v>2018</v>
@@ -2567,7 +2348,7 @@
         <v>1.5</v>
       </c>
       <c r="E60" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F60" s="1">
         <v>43217</v>
@@ -2590,7 +2371,7 @@
         <v>768</v>
       </c>
       <c r="B61" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C61">
         <v>2018</v>
@@ -2599,7 +2380,7 @@
         <v>2.33</v>
       </c>
       <c r="E61" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F61" s="1">
         <v>43210</v>
